--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\JAVA Fsd 12th April Batch 7 30 Am\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F70450-DC21-41C6-A4CD-F82D2C3FB56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBCE488-F3E4-4121-BAC2-39582CF0B647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Concepts</t>
   </si>
@@ -119,6 +119,21 @@
   </si>
   <si>
     <t>https://github.com/sandeepsomavarapu/OnlineTraining9_april_2023-7-30AM.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download and install java and eclipse </t>
+  </si>
+  <si>
+    <t>Day-2</t>
+  </si>
+  <si>
+    <t>compailation,execution,java setup</t>
+  </si>
+  <si>
+    <t>7:40AM-8:50AM</t>
+  </si>
+  <si>
+    <t>https://www.eclipse.org/downloads/packages/release/2020-12/r</t>
   </si>
 </sst>
 </file>
@@ -297,7 +312,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -581,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,12 +662,24 @@
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45029</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7" s="6"/>
@@ -1892,9 +1919,11 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{C438D4D9-FF94-4163-9A83-2CC81A380B4A}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{55425D7C-77A7-40EC-BE6F-7638B8408219}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{8F288ACE-2B75-48BA-B846-60D1B8B31F82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\JAVA Fsd 12th April Batch 7 30 Am\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBCE488-F3E4-4121-BAC2-39582CF0B647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA12CFA-02C3-4CE9-8ABF-1853D6A2EFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Concepts</t>
   </si>
@@ -127,13 +127,25 @@
     <t>Day-2</t>
   </si>
   <si>
-    <t>compailation,execution,java setup</t>
-  </si>
-  <si>
     <t>7:40AM-8:50AM</t>
   </si>
   <si>
     <t>https://www.eclipse.org/downloads/packages/release/2020-12/r</t>
+  </si>
+  <si>
+    <t>Day-3</t>
+  </si>
+  <si>
+    <t>compailation,execution flow,java setup,.java,.class,compiler,jvm</t>
+  </si>
+  <si>
+    <t>identifiers,variables,datatypes</t>
+  </si>
+  <si>
+    <t>7:30AM-8:55AM</t>
+  </si>
+  <si>
+    <t>download and install java and eclipse and revise variables  and keywords</t>
   </si>
 </sst>
 </file>
@@ -596,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,24 +681,34 @@
         <v>45029</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3"/>
+      <c r="E7" s="4">
+        <v>45030</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\OnlineTraining9\Sai\JAVA Fsd 12th April Batch 7 30 Am\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA12CFA-02C3-4CE9-8ABF-1853D6A2EFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7252271-DE45-4768-80C9-F740926EB792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Concepts</t>
   </si>
@@ -145,7 +145,19 @@
     <t>7:30AM-8:55AM</t>
   </si>
   <si>
-    <t>download and install java and eclipse and revise variables  and keywords</t>
+    <t>download and install java and eclipse and revise variables  and keywords,language fundamentals notes</t>
+  </si>
+  <si>
+    <t>Day-4</t>
+  </si>
+  <si>
+    <t>instance.static variables ,ECLIPSE</t>
+  </si>
+  <si>
+    <t>7:35AM-8:35AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revise instance and static </t>
   </si>
 </sst>
 </file>
@@ -609,7 +621,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,11 +724,21 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45035</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
